--- a/Outputs/Test List 2.xlsx
+++ b/Outputs/Test List 2.xlsx
@@ -2,8 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="WCS" sheetId="18" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -66,7 +67,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -429,22 +430,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T154"/>
+  <dimension ref="A1:T155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
-  <cols>
-    <col width="9.453125" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="16.1796875" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="15.81640625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="14.6328125" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19.1796875" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="13" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="14.6328125" bestFit="1" customWidth="1" min="7" max="7"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -576,14 +568,14 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>$161,133.42</t>
+          <t>$446,215.62</t>
         </is>
       </c>
       <c r="G2" t="n">
         <v>13.25327872710037</v>
       </c>
       <c r="H2" t="n">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -650,14 +642,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>$170,413.55</t>
+          <t>$498,131.92</t>
         </is>
       </c>
       <c r="G3" t="n">
         <v>10.1787431966972</v>
       </c>
       <c r="H3" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -724,14 +716,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>$144,922.68</t>
+          <t>$423,620.15</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>9.264759866513215</v>
       </c>
       <c r="H4" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -798,14 +790,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>$121,821.22</t>
+          <t>$398,687.64</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>10.10887333989425</v>
       </c>
       <c r="H5" t="n">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
@@ -872,14 +864,14 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>$118,519.97</t>
+          <t>$398,658.09</t>
         </is>
       </c>
       <c r="G6" t="n">
         <v>10.62173372990617</v>
       </c>
       <c r="H6" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
@@ -946,14 +938,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$111,144.08</t>
+          <t>$333,432.23</t>
         </is>
       </c>
       <c r="G7" t="n">
         <v>9.551883798783699</v>
       </c>
       <c r="H7" t="n">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
@@ -1020,14 +1012,14 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>$108,016.47</t>
+          <t>$315,740.46</t>
         </is>
       </c>
       <c r="G8" t="n">
         <v>9.353611997780066</v>
       </c>
       <c r="H8" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1094,14 +1086,14 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>$95,373.46</t>
+          <t>$294,068.17</t>
         </is>
       </c>
       <c r="G9" t="n">
         <v>10.22876583603915</v>
       </c>
       <c r="H9" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -1168,14 +1160,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$110,965.56</t>
+          <t>$285,340.00</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>7.237768977360342</v>
       </c>
       <c r="H10" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1242,14 +1234,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>$151,272.58</t>
+          <t>$586,181.25</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>8.88842721427886</v>
       </c>
       <c r="H11" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="I11" t="n">
         <v>2</v>
@@ -1316,14 +1308,14 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>$146,759.88</t>
+          <t>$587,039.50</t>
         </is>
       </c>
       <c r="G12" t="n">
         <v>9.652196956082172</v>
       </c>
       <c r="H12" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="I12" t="n">
         <v>2</v>
@@ -1390,14 +1382,14 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>$205,405.66</t>
+          <t>$661,862.67</t>
         </is>
       </c>
       <c r="G13" t="n">
         <v>5.227044247514255</v>
       </c>
       <c r="H13" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
@@ -1464,14 +1456,14 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>$232,321.62</t>
+          <t>$673,732.70</t>
         </is>
       </c>
       <c r="G14" t="n">
         <v>7.751492542962513</v>
       </c>
       <c r="H14" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I14" t="n">
         <v>2</v>
@@ -1538,14 +1530,14 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>$160,189.54</t>
+          <t>$694,154.67</t>
         </is>
       </c>
       <c r="G15" t="n">
         <v>18.08363665990544</v>
       </c>
       <c r="H15" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
@@ -1612,14 +1604,14 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>$117,701.95</t>
+          <t>$672,582.57</t>
         </is>
       </c>
       <c r="G16" t="n">
         <v>9.547164681638664</v>
       </c>
       <c r="H16" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
@@ -1686,14 +1678,14 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>$96,823.98</t>
+          <t>$608,607.86</t>
         </is>
       </c>
       <c r="G17" t="n">
         <v>10.90676332754729</v>
       </c>
       <c r="H17" t="n">
-        <v>44</v>
+        <v>7</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1760,14 +1752,14 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>$104,718.00</t>
+          <t>$613,348.29</t>
         </is>
       </c>
       <c r="G18" t="n">
         <v>6.907845414327632</v>
       </c>
       <c r="H18" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
         <v>1</v>
@@ -1834,14 +1826,14 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>$95,875.10</t>
+          <t>$561,554.14</t>
         </is>
       </c>
       <c r="G19" t="n">
         <v>8.617217675741227</v>
       </c>
       <c r="H19" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
@@ -1915,7 +1907,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1989,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2063,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2137,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2211,7 +2203,7 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2285,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2359,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2426,14 +2418,14 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>$1,220.00</t>
+          <t>$18,300.00</t>
         </is>
       </c>
       <c r="G27" t="n">
         <v>59.50065573770492</v>
       </c>
       <c r="H27" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2500,14 +2492,14 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>$1,220.00</t>
+          <t>$18,300.00</t>
         </is>
       </c>
       <c r="G28" t="n">
         <v>259.8657923497268</v>
       </c>
       <c r="H28" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2574,14 +2566,14 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>$31,187.92</t>
+          <t>$180,196.89</t>
         </is>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>52</v>
+        <v>9</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2648,14 +2640,14 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>$30,464.12</t>
+          <t>$189,554.56</t>
         </is>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>56</v>
+        <v>9</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2722,14 +2714,14 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>$27,654.35</t>
+          <t>$190,123.62</t>
         </is>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2796,14 +2788,14 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>$25,562.33</t>
+          <t>$161,894.78</t>
         </is>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2870,14 +2862,14 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>$17,845.07</t>
+          <t>$129,376.75</t>
         </is>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2944,14 +2936,14 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>$15,742.16</t>
+          <t>$131,840.62</t>
         </is>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3018,14 +3010,14 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>$17,267.44</t>
+          <t>$127,347.38</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>-0.4515208892213129</v>
       </c>
       <c r="H35" t="n">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3092,14 +3084,14 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>$11,773.76</t>
+          <t>$105,963.88</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0.5426377621618689</v>
       </c>
       <c r="H36" t="n">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3166,14 +3158,14 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>$11,544.88</t>
+          <t>$53,601.21</t>
         </is>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3240,14 +3232,14 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>$16,526.08</t>
+          <t>$82,630.40</t>
         </is>
       </c>
       <c r="G38" t="n">
         <v>-0.6571939625125862</v>
       </c>
       <c r="H38" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I38" t="n">
         <v>2</v>
@@ -3314,14 +3306,14 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>$15,522.59</t>
+          <t>$68,299.40</t>
         </is>
       </c>
       <c r="G39" t="n">
         <v>5.080325742246638</v>
       </c>
       <c r="H39" t="n">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3388,14 +3380,14 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>$14,240.52</t>
+          <t>$49,841.83</t>
         </is>
       </c>
       <c r="G40" t="n">
         <v>-9.310809861863026</v>
       </c>
       <c r="H40" t="n">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="I40" t="n">
         <v>1</v>
@@ -3462,14 +3454,14 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>$5,809.23</t>
+          <t>$43,569.25</t>
         </is>
       </c>
       <c r="G41" t="n">
         <v>-10.20805958330703</v>
       </c>
       <c r="H41" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I41" t="n">
         <v>1</v>
@@ -3536,14 +3528,14 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>$5,032.62</t>
+          <t>$40,261.00</t>
         </is>
       </c>
       <c r="G42" t="n">
         <v>-3.337379846501577</v>
       </c>
       <c r="H42" t="n">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
         <v>1</v>
@@ -3610,14 +3602,14 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>$6,732.20</t>
+          <t>$40,393.20</t>
         </is>
       </c>
       <c r="G43" t="n">
         <v>4.60116554271511</v>
       </c>
       <c r="H43" t="n">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3684,14 +3676,14 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>$8,718.89</t>
+          <t>$40,688.17</t>
         </is>
       </c>
       <c r="G44" t="n">
         <v>-4.439812558114768</v>
       </c>
       <c r="H44" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="I44" t="n">
         <v>1</v>
@@ -3758,14 +3750,14 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>$4,873.72</t>
+          <t>$22,279.86</t>
         </is>
       </c>
       <c r="G45" t="n">
         <v>30.75435210536103</v>
       </c>
       <c r="H45" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="I45" t="n">
         <v>2</v>
@@ -3832,14 +3824,14 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>$486.59</t>
+          <t>$3,600.80</t>
         </is>
       </c>
       <c r="G46" t="n">
         <v>161.3694734503444</v>
       </c>
       <c r="H46" t="n">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
         <v>1</v>
@@ -3906,14 +3898,14 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>$85,891.03</t>
+          <t>$372,194.44</t>
         </is>
       </c>
       <c r="G47" t="n">
         <v>12.32941921038883</v>
       </c>
       <c r="H47" t="n">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="I47" t="n">
         <v>1</v>
@@ -3980,14 +3972,14 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>$86,692.44</t>
+          <t>$307,364.09</t>
         </is>
       </c>
       <c r="G48" t="n">
         <v>13.66962693045411</v>
       </c>
       <c r="H48" t="n">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -4054,14 +4046,14 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>$92,489.38</t>
+          <t>$349,404.33</t>
         </is>
       </c>
       <c r="G49" t="n">
         <v>11.01357643913975</v>
       </c>
       <c r="H49" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I49" t="n">
         <v>1</v>
@@ -4128,14 +4120,14 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>$98,843.71</t>
+          <t>$288,294.17</t>
         </is>
       </c>
       <c r="G50" t="n">
         <v>11.36875616051891</v>
       </c>
       <c r="H50" t="n">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I50" t="n">
         <v>2</v>
@@ -4202,14 +4194,14 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>$131,634.24</t>
+          <t>$381,739.30</t>
         </is>
       </c>
       <c r="G51" t="n">
         <v>9.513007961192363</v>
       </c>
       <c r="H51" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="I51" t="n">
         <v>2</v>
@@ -4276,14 +4268,14 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>$104,708.68</t>
+          <t>$295,088.09</t>
         </is>
       </c>
       <c r="G52" t="n">
         <v>13.34163634957697</v>
       </c>
       <c r="H52" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="I52" t="n">
         <v>1</v>
@@ -4350,14 +4342,14 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>$99,010.97</t>
+          <t>$352,039.00</t>
         </is>
       </c>
       <c r="G53" t="n">
         <v>12.76694375086599</v>
       </c>
       <c r="H53" t="n">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4424,14 +4416,14 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>$85,933.65</t>
+          <t>$317,954.50</t>
         </is>
       </c>
       <c r="G54" t="n">
         <v>9.808460959036593</v>
       </c>
       <c r="H54" t="n">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="I54" t="n">
         <v>1</v>
@@ -4498,14 +4490,14 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>$86,041.28</t>
+          <t>$344,165.11</t>
         </is>
       </c>
       <c r="G55" t="n">
         <v>7.738681304774259</v>
       </c>
       <c r="H55" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I55" t="n">
         <v>1</v>
@@ -4572,14 +4564,14 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>$163,675.61</t>
+          <t>$479,335.71</t>
         </is>
       </c>
       <c r="G56" t="n">
         <v>2.47424247842997</v>
       </c>
       <c r="H56" t="n">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4646,14 +4638,14 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>$177,374.65</t>
+          <t>$567,598.87</t>
         </is>
       </c>
       <c r="G57" t="n">
         <v>1.777118535472763</v>
       </c>
       <c r="H57" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="I57" t="n">
         <v>1</v>
@@ -4720,14 +4712,14 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>$134,258.59</t>
+          <t>$344,402.48</t>
         </is>
       </c>
       <c r="G58" t="n">
         <v>0.9404152649005075</v>
       </c>
       <c r="H58" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="I58" t="n">
         <v>1</v>
@@ -4794,14 +4786,14 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>$131,366.09</t>
+          <t>$354,688.45</t>
         </is>
       </c>
       <c r="G59" t="n">
         <v>0.760163179827254</v>
       </c>
       <c r="H59" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4868,14 +4860,14 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>$150,021.17</t>
+          <t>$363,209.16</t>
         </is>
       </c>
       <c r="G60" t="n">
         <v>1.539354299842312</v>
       </c>
       <c r="H60" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I60" t="n">
         <v>1</v>
@@ -4942,14 +4934,14 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>$122,988.20</t>
+          <t>$313,619.90</t>
         </is>
       </c>
       <c r="G61" t="n">
         <v>4.199179643893771</v>
       </c>
       <c r="H61" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="I61" t="n">
         <v>1</v>
@@ -5016,14 +5008,14 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>$119,301.20</t>
+          <t>$292,287.95</t>
         </is>
       </c>
       <c r="G62" t="n">
         <v>1.382227354908062</v>
       </c>
       <c r="H62" t="n">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="I62" t="n">
         <v>1</v>
@@ -5090,14 +5082,14 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>$107,757.71</t>
+          <t>$301,721.60</t>
         </is>
       </c>
       <c r="G63" t="n">
         <v>4.268841430864303</v>
       </c>
       <c r="H63" t="n">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="I63" t="n">
         <v>1</v>
@@ -5164,14 +5156,14 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>$103,662.78</t>
+          <t>$254,445.00</t>
         </is>
       </c>
       <c r="G64" t="n">
         <v>3.335555102996004</v>
       </c>
       <c r="H64" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5238,14 +5230,14 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>$132,406.94</t>
+          <t>$276,327.52</t>
         </is>
       </c>
       <c r="G65" t="n">
         <v>-3.15219856462078</v>
       </c>
       <c r="H65" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I65" t="n">
         <v>1</v>
@@ -5312,14 +5304,14 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>$112,250.77</t>
+          <t>$244,910.77</t>
         </is>
       </c>
       <c r="G66" t="n">
         <v>1.794018303883214</v>
       </c>
       <c r="H66" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5386,14 +5378,14 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>$112,184.75</t>
+          <t>$265,163.95</t>
         </is>
       </c>
       <c r="G67" t="n">
         <v>-0.1636923776318837</v>
       </c>
       <c r="H67" t="n">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5460,14 +5452,14 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>$83,526.67</t>
+          <t>$184,334.72</t>
         </is>
       </c>
       <c r="G68" t="n">
         <v>-0.5329455954095501</v>
       </c>
       <c r="H68" t="n">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I68" t="n">
         <v>2</v>
@@ -5534,14 +5526,14 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>$92,670.11</t>
+          <t>$247,120.29</t>
         </is>
       </c>
       <c r="G69" t="n">
         <v>0.6484530571770909</v>
       </c>
       <c r="H69" t="n">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5608,14 +5600,14 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>$63,781.90</t>
+          <t>$191,345.69</t>
         </is>
       </c>
       <c r="G70" t="n">
         <v>1.222248576277973</v>
       </c>
       <c r="H70" t="n">
-        <v>78</v>
+        <v>26</v>
       </c>
       <c r="I70" t="n">
         <v>1</v>
@@ -5682,14 +5674,14 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>$68,998.24</t>
+          <t>$206,994.71</t>
         </is>
       </c>
       <c r="G71" t="n">
         <v>1.395169855959055</v>
       </c>
       <c r="H71" t="n">
-        <v>84</v>
+        <v>28</v>
       </c>
       <c r="I71" t="n">
         <v>1</v>
@@ -5756,14 +5748,14 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>$58,850.55</t>
+          <t>$174,522.31</t>
         </is>
       </c>
       <c r="G72" t="n">
         <v>2.068863639013054</v>
       </c>
       <c r="H72" t="n">
-        <v>86</v>
+        <v>29</v>
       </c>
       <c r="I72" t="n">
         <v>2</v>
@@ -5830,14 +5822,14 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>$55,030.00</t>
+          <t>$173,242.59</t>
         </is>
       </c>
       <c r="G73" t="n">
         <v>2.896552468706909</v>
       </c>
       <c r="H73" t="n">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="I73" t="n">
         <v>1</v>
@@ -5904,14 +5896,14 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>$455,555.29</t>
+          <t>$976,189.90</t>
         </is>
       </c>
       <c r="G74" t="n">
         <v>36.65261355274939</v>
       </c>
       <c r="H74" t="n">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="I74" t="n">
         <v>1</v>
@@ -5978,14 +5970,14 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>$377,004.58</t>
+          <t>$848,260.30</t>
         </is>
       </c>
       <c r="G75" t="n">
         <v>45.260424718686</v>
       </c>
       <c r="H75" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6052,14 +6044,14 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>$364,591.57</t>
+          <t>$798,629.14</t>
         </is>
       </c>
       <c r="G76" t="n">
         <v>29.24679814434401</v>
       </c>
       <c r="H76" t="n">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="I76" t="n">
         <v>1</v>
@@ -6126,14 +6118,14 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>$355,929.98</t>
+          <t>$760,395.86</t>
         </is>
       </c>
       <c r="G77" t="n">
         <v>18.88445569828491</v>
       </c>
       <c r="H77" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="I77" t="n">
         <v>1</v>
@@ -6200,14 +6192,14 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>$301,557.67</t>
+          <t>$629,337.74</t>
         </is>
       </c>
       <c r="G78" t="n">
         <v>23.7725732115361</v>
       </c>
       <c r="H78" t="n">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="I78" t="n">
         <v>1</v>
@@ -6274,14 +6266,14 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>$302,292.69</t>
+          <t>$725,502.45</t>
         </is>
       </c>
       <c r="G79" t="n">
         <v>11.06540356962268</v>
       </c>
       <c r="H79" t="n">
-        <v>48</v>
+        <v>20</v>
       </c>
       <c r="I79" t="n">
         <v>1</v>
@@ -6348,14 +6340,14 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>$252,675.86</t>
+          <t>$651,637.74</t>
         </is>
       </c>
       <c r="G80" t="n">
         <v>0.4486598422420207</v>
       </c>
       <c r="H80" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6422,14 +6414,14 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>$266,358.35</t>
+          <t>$581,145.50</t>
         </is>
       </c>
       <c r="G81" t="n">
         <v>24.98686207592669</v>
       </c>
       <c r="H81" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6496,14 +6488,14 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>$243,464.31</t>
+          <t>$531,194.86</t>
         </is>
       </c>
       <c r="G82" t="n">
         <v>23.26833184911512</v>
       </c>
       <c r="H82" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="I82" t="n">
         <v>2</v>
@@ -6570,14 +6562,14 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>$121,512.82</t>
+          <t>$459,048.44</t>
         </is>
       </c>
       <c r="G83" t="n">
         <v>3.436699249365112</v>
       </c>
       <c r="H83" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6644,14 +6636,14 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>$111,345.68</t>
+          <t>$423,113.60</t>
         </is>
       </c>
       <c r="G84" t="n">
         <v>4.526898686310249</v>
       </c>
       <c r="H84" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="I84" t="n">
         <v>1</v>
@@ -6718,14 +6710,14 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>$107,900.61</t>
+          <t>$388,442.20</t>
         </is>
       </c>
       <c r="G85" t="n">
         <v>2.935173366848401</v>
       </c>
       <c r="H85" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -6792,14 +6784,14 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>$108,959.95</t>
+          <t>$366,501.64</t>
         </is>
       </c>
       <c r="G86" t="n">
         <v>2.420635105684757</v>
       </c>
       <c r="H86" t="n">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="I86" t="n">
         <v>2</v>
@@ -6866,14 +6858,14 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>$98,612.50</t>
+          <t>$335,282.50</t>
         </is>
       </c>
       <c r="G87" t="n">
         <v>2.718773571540417</v>
       </c>
       <c r="H87" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6940,14 +6932,14 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>$93,547.87</t>
+          <t>$323,165.36</t>
         </is>
       </c>
       <c r="G88" t="n">
         <v>3.112628237893406</v>
       </c>
       <c r="H88" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="I88" t="n">
         <v>1</v>
@@ -7014,14 +7006,14 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>$74,318.81</t>
+          <t>$297,275.22</t>
         </is>
       </c>
       <c r="G89" t="n">
         <v>6.866824495220852</v>
       </c>
       <c r="H89" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I89" t="n">
         <v>1</v>
@@ -7088,14 +7080,14 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>$70,143.00</t>
+          <t>$272,778.33</t>
         </is>
       </c>
       <c r="G90" t="n">
         <v>4.336985057056911</v>
       </c>
       <c r="H90" t="n">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="I90" t="n">
         <v>1</v>
@@ -7162,14 +7154,14 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>$60,036.30</t>
+          <t>$246,815.89</t>
         </is>
       </c>
       <c r="G91" t="n">
         <v>2.705060407150089</v>
       </c>
       <c r="H91" t="n">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="I91" t="n">
         <v>1</v>
@@ -7236,14 +7228,14 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>$110,548.28</t>
+          <t>$432,980.75</t>
         </is>
       </c>
       <c r="G92" t="n">
         <v>11.83220424156655</v>
       </c>
       <c r="H92" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="I92" t="n">
         <v>1</v>
@@ -7310,14 +7302,14 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>$99,123.91</t>
+          <t>$387,484.36</t>
         </is>
       </c>
       <c r="G93" t="n">
         <v>2.94061461248407</v>
       </c>
       <c r="H93" t="n">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I93" t="n">
         <v>1</v>
@@ -7384,14 +7376,14 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>$111,901.21</t>
+          <t>$427,259.18</t>
         </is>
       </c>
       <c r="G94" t="n">
         <v>9.68088988353035</v>
       </c>
       <c r="H94" t="n">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="I94" t="n">
         <v>1</v>
@@ -7458,14 +7450,14 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>$95,953.81</t>
+          <t>$409,984.45</t>
         </is>
       </c>
       <c r="G95" t="n">
         <v>14.97541968886182</v>
       </c>
       <c r="H95" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7532,14 +7524,14 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>$90,210.49</t>
+          <t>$306,715.67</t>
         </is>
       </c>
       <c r="G96" t="n">
         <v>0.1806244002317021</v>
       </c>
       <c r="H96" t="n">
-        <v>51</v>
+        <v>15</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7606,14 +7598,14 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>$81,537.94</t>
+          <t>$307,335.31</t>
         </is>
       </c>
       <c r="G97" t="n">
         <v>16.43895079265718</v>
       </c>
       <c r="H97" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I97" t="n">
         <v>1</v>
@@ -7680,14 +7672,14 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>$72,551.39</t>
+          <t>$284,624.69</t>
         </is>
       </c>
       <c r="G98" t="n">
         <v>7.839170394697903</v>
       </c>
       <c r="H98" t="n">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="I98" t="n">
         <v>1</v>
@@ -7754,14 +7746,14 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>$76,969.18</t>
+          <t>$296,035.31</t>
         </is>
       </c>
       <c r="G99" t="n">
         <v>8.199927035730406</v>
       </c>
       <c r="H99" t="n">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="I99" t="n">
         <v>1</v>
@@ -7828,14 +7820,14 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>$71,221.37</t>
+          <t>$268,449.77</t>
         </is>
       </c>
       <c r="G100" t="n">
         <v>9.413827884145064</v>
       </c>
       <c r="H100" t="n">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7902,14 +7894,14 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>$120,884.55</t>
+          <t>$295,495.56</t>
         </is>
       </c>
       <c r="G101" t="n">
         <v>7.807979815451257</v>
       </c>
       <c r="H101" t="n">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="I101" t="n">
         <v>1</v>
@@ -7976,14 +7968,14 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>$120,062.63</t>
+          <t>$306,826.72</t>
         </is>
       </c>
       <c r="G102" t="n">
         <v>-1.223812535522674</v>
       </c>
       <c r="H102" t="n">
-        <v>46</v>
+        <v>18</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8050,14 +8042,14 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>$123,349.73</t>
+          <t>$308,374.33</t>
         </is>
       </c>
       <c r="G103" t="n">
         <v>-1.569519584602984</v>
       </c>
       <c r="H103" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8124,14 +8116,14 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>$115,852.52</t>
+          <t>$318,594.44</t>
         </is>
       </c>
       <c r="G104" t="n">
         <v>0.09105561518160529</v>
       </c>
       <c r="H104" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8198,14 +8190,14 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>$132,413.33</t>
+          <t>$320,579.63</t>
         </is>
       </c>
       <c r="G105" t="n">
         <v>2.39970231552617</v>
       </c>
       <c r="H105" t="n">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="I105" t="n">
         <v>1</v>
@@ -8272,14 +8264,14 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>$114,250.80</t>
+          <t>$294,646.79</t>
         </is>
       </c>
       <c r="G106" t="n">
         <v>0.6458566179773856</v>
       </c>
       <c r="H106" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8346,14 +8338,14 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>$99,851.31</t>
+          <t>$268,021.95</t>
         </is>
       </c>
       <c r="G107" t="n">
         <v>3.97355538637154</v>
       </c>
       <c r="H107" t="n">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="I107" t="n">
         <v>1</v>
@@ -8420,14 +8412,14 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>$102,372.77</t>
+          <t>$295,743.56</t>
         </is>
       </c>
       <c r="G108" t="n">
         <v>4.500335313026451</v>
       </c>
       <c r="H108" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="I108" t="n">
         <v>1</v>
@@ -8494,14 +8486,14 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>$99,936.02</t>
+          <t>$294,256.06</t>
         </is>
       </c>
       <c r="G109" t="n">
         <v>4.924632911358946</v>
       </c>
       <c r="H109" t="n">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="I109" t="n">
         <v>2</v>
@@ -8568,14 +8560,14 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>$799.70</t>
+          <t>$18,393.00</t>
         </is>
       </c>
       <c r="G110" t="n">
         <v>214.8747349535149</v>
       </c>
       <c r="H110" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
@@ -8642,14 +8634,14 @@
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>$1,199.95</t>
+          <t>$25,199.00</t>
         </is>
       </c>
       <c r="G111" t="n">
         <v>395.7171316322076</v>
       </c>
       <c r="H111" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8716,14 +8708,14 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>$1,760.80</t>
+          <t>$44,020.00</t>
         </is>
       </c>
       <c r="G112" t="n">
         <v>16.17592003634712</v>
       </c>
       <c r="H112" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8790,14 +8782,14 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>$3,889.15</t>
+          <t>$38,891.50</t>
         </is>
       </c>
       <c r="G113" t="n">
         <v>10.22960029826569</v>
       </c>
       <c r="H113" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8864,14 +8856,14 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>$1,987.16</t>
+          <t>$37,756.00</t>
         </is>
       </c>
       <c r="G114" t="n">
         <v>22.04727725394639</v>
       </c>
       <c r="H114" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8938,14 +8930,14 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>$1,989.16</t>
+          <t>$37,794.00</t>
         </is>
       </c>
       <c r="G115" t="n">
         <v>117.4839657088427</v>
       </c>
       <c r="H115" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -9012,14 +9004,14 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>$1,512.80</t>
+          <t>$37,820.00</t>
         </is>
       </c>
       <c r="G116" t="n">
         <v>-8.405473294553147</v>
       </c>
       <c r="H116" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9086,14 +9078,14 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>$666.67</t>
+          <t>$14,000.00</t>
         </is>
       </c>
       <c r="G117" t="n">
         <v>126.3837857142857</v>
       </c>
       <c r="H117" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9160,14 +9152,14 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>$823.53</t>
+          <t>$14,000.00</t>
         </is>
       </c>
       <c r="G118" t="n">
         <v>5.962285714285715</v>
       </c>
       <c r="H118" t="n">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9234,14 +9226,14 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>$180,080.74</t>
+          <t>$336,672.70</t>
         </is>
       </c>
       <c r="G119" t="n">
         <v>3.552015814094763</v>
       </c>
       <c r="H119" t="n">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="I119" t="n">
         <v>3</v>
@@ -9308,14 +9300,14 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>$181,013.60</t>
+          <t>$354,157.04</t>
         </is>
       </c>
       <c r="G120" t="n">
         <v>0.6828848464670303</v>
       </c>
       <c r="H120" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="I120" t="n">
         <v>1</v>
@@ -9382,14 +9374,14 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>$180,684.08</t>
+          <t>$354,140.80</t>
         </is>
       </c>
       <c r="G121" t="n">
         <v>1.056612962979696</v>
       </c>
       <c r="H121" t="n">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="I121" t="n">
         <v>2</v>
@@ -9456,14 +9448,14 @@
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>$180,645.98</t>
+          <t>$361,291.96</t>
         </is>
       </c>
       <c r="G122" t="n">
         <v>0.6650393662466193</v>
       </c>
       <c r="H122" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I122" t="n">
         <v>2</v>
@@ -9530,14 +9522,14 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>$182,284.41</t>
+          <t>$444,318.25</t>
         </is>
       </c>
       <c r="G123" t="n">
         <v>1.125231464158855</v>
       </c>
       <c r="H123" t="n">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="I123" t="n">
         <v>1</v>
@@ -9604,14 +9596,14 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>$150,899.97</t>
+          <t>$372,219.93</t>
         </is>
       </c>
       <c r="G124" t="n">
         <v>1.26253313677093</v>
       </c>
       <c r="H124" t="n">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="I124" t="n">
         <v>1</v>
@@ -9678,14 +9670,14 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>$135,049.59</t>
+          <t>$416,402.92</t>
         </is>
       </c>
       <c r="G125" t="n">
         <v>1.811495876890072</v>
       </c>
       <c r="H125" t="n">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9752,14 +9744,14 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>$148,361.39</t>
+          <t>$433,671.77</t>
         </is>
       </c>
       <c r="G126" t="n">
         <v>3.318428524373183</v>
       </c>
       <c r="H126" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I126" t="n">
         <v>1</v>
@@ -9826,14 +9818,14 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>$133,979.74</t>
+          <t>$391,633.08</t>
         </is>
       </c>
       <c r="G127" t="n">
         <v>4.402518448390664</v>
       </c>
       <c r="H127" t="n">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9907,7 +9899,7 @@
         <v>0</v>
       </c>
       <c r="H128" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9974,14 +9966,14 @@
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>$1,500.46</t>
+          <t>$36,011.00</t>
         </is>
       </c>
       <c r="G129" t="n">
         <v>87.62714170670073</v>
       </c>
       <c r="H129" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10048,14 +10040,14 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>$7,247.46</t>
+          <t>$173,939.00</t>
         </is>
       </c>
       <c r="G130" t="n">
         <v>-10.92960175693778</v>
       </c>
       <c r="H130" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10122,14 +10114,14 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>$7,341.23</t>
+          <t>$161,507.00</t>
         </is>
       </c>
       <c r="G131" t="n">
         <v>-1.639736977344635</v>
       </c>
       <c r="H131" t="n">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10196,14 +10188,14 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>$2,501.46</t>
+          <t>$60,035.00</t>
         </is>
       </c>
       <c r="G132" t="n">
         <v>54.92159573582077</v>
       </c>
       <c r="H132" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10270,14 +10262,14 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>$14,647.67</t>
+          <t>$175,772.00</t>
         </is>
       </c>
       <c r="G133" t="n">
         <v>3.321467583005257</v>
       </c>
       <c r="H133" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10344,14 +10336,14 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>$10,426.70</t>
+          <t>$119,907.00</t>
         </is>
       </c>
       <c r="G134" t="n">
         <v>-5.085970794032042</v>
       </c>
       <c r="H134" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10418,14 +10410,14 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>$3,349.43</t>
+          <t>$38,518.50</t>
         </is>
       </c>
       <c r="G135" t="n">
         <v>39.74220179913548</v>
       </c>
       <c r="H135" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10492,14 +10484,14 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>$10,749.60</t>
+          <t>$71,664.00</t>
         </is>
       </c>
       <c r="G136" t="n">
         <v>8.427313574458584</v>
       </c>
       <c r="H136" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10566,14 +10558,14 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>$1,919.86</t>
+          <t>$53,756.00</t>
         </is>
       </c>
       <c r="G137" t="n">
         <v>29.50993377483444</v>
       </c>
       <c r="H137" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10640,14 +10632,14 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>$546.37</t>
+          <t>$14,752.00</t>
         </is>
       </c>
       <c r="G138" t="n">
         <v>111.8613069414317</v>
       </c>
       <c r="H138" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10714,14 +10706,14 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>$549.63</t>
+          <t>$14,840.00</t>
         </is>
       </c>
       <c r="G139" t="n">
         <v>32.72911051212938</v>
       </c>
       <c r="H139" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10788,14 +10780,14 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>$618.33</t>
+          <t>$14,840.00</t>
         </is>
       </c>
       <c r="G140" t="n">
         <v>23.73793800539083</v>
       </c>
       <c r="H140" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10862,14 +10854,14 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>$1,471.24</t>
+          <t>$36,781.00</t>
         </is>
       </c>
       <c r="G141" t="n">
         <v>34.05921535575433</v>
       </c>
       <c r="H141" t="n">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10936,14 +10928,14 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>$1,147.33</t>
+          <t>$27,536.00</t>
         </is>
       </c>
       <c r="G142" t="n">
         <v>6.803675188843695</v>
       </c>
       <c r="H142" t="n">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -11010,14 +11002,14 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>$2,027.57</t>
+          <t>$42,579.00</t>
         </is>
       </c>
       <c r="G143" t="n">
         <v>7.135348411188614</v>
       </c>
       <c r="H143" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11084,14 +11076,14 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>$1,436.14</t>
+          <t>$30,159.00</t>
         </is>
       </c>
       <c r="G144" t="n">
         <v>13.04539275174906</v>
       </c>
       <c r="H144" t="n">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11158,14 +11150,14 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>$1,210.83</t>
+          <t>$27,849.00</t>
         </is>
       </c>
       <c r="G145" t="n">
         <v>6.457000251355525</v>
       </c>
       <c r="H145" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11207,7 +11199,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -11217,32 +11209,32 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>$2,632,197.00</t>
+          <t>$2,146,058.00</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>$1,348,111.00</t>
+          <t>$706,369.00</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>$381,777.00</t>
+          <t>$412,611.00</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>$13,164.72</t>
+          <t>$82,522.20</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>3.531147764270766</v>
+        <v>1.711949027049691</v>
       </c>
       <c r="H146" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -11275,13 +11267,13 @@
         <v>0</v>
       </c>
       <c r="T146" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -11291,29 +11283,29 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>$2,404,154.00</t>
+          <t>$2,632,197.00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>($367,226.00)</t>
+          <t>$1,348,111.00</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>$78,519.00</t>
+          <t>$381,777.00</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>$2,908.11</t>
+          <t>$76,355.40</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>-4.676906226518422</v>
+        <v>3.531147764270766</v>
       </c>
       <c r="H147" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11337,7 +11329,7 @@
         <v>0</v>
       </c>
       <c r="P147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
@@ -11349,13 +11341,13 @@
         <v>0</v>
       </c>
       <c r="T147" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -11365,29 +11357,29 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>$5,861,804.00</t>
+          <t>$2,404,154.00</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>$2,096,394.00</t>
+          <t>($367,226.00)</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>$45,889.00</t>
+          <t>$78,519.00</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>$1,699.59</t>
+          <t>$26,173.00</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>45.68402013554446</v>
+        <v>-4.676906226518422</v>
       </c>
       <c r="H148" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11411,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="P148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q148" t="n">
         <v>0</v>
@@ -11429,7 +11421,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -11439,29 +11431,29 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>$2,386,460.00</t>
+          <t>$5,861,804.00</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>$707,643.00</t>
+          <t>$2,096,394.00</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>$20,281.00</t>
+          <t>$45,889.00</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>$751.15</t>
+          <t>$22,944.50</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>34.89191854445047</v>
+        <v>45.68402013554446</v>
       </c>
       <c r="H149" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11497,13 +11489,13 @@
         <v>0</v>
       </c>
       <c r="T149" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -11513,29 +11505,29 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>$2,600,440.00</t>
+          <t>$2,386,460.00</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>$354,205.00</t>
+          <t>$707,643.00</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>$13,600.00</t>
+          <t>$20,281.00</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>$523.08</t>
+          <t>$20,281.00</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>26.04448529411765</v>
+        <v>34.89191854445047</v>
       </c>
       <c r="H150" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11577,7 +11569,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -11587,29 +11579,29 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>$4,000,259.00</t>
+          <t>$2,600,440.00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>$2,893,827.00</t>
+          <t>$354,205.00</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>$21,200.00</t>
+          <t>$13,600.00</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>$757.14</t>
+          <t>$13,600.00</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>136.5012735849056</v>
+        <v>26.04448529411765</v>
       </c>
       <c r="H151" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11651,7 +11643,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>2016</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -11661,29 +11653,29 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>$1,422,090.00</t>
+          <t>$4,000,259.00</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>$84,896.00</t>
+          <t>$2,893,827.00</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>$22,832.00</t>
+          <t>$21,200.00</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>$845.63</t>
+          <t>$21,200.00</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>3.718290119131044</v>
+        <v>136.5012735849056</v>
       </c>
       <c r="H152" t="n">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11707,25 +11699,25 @@
         <v>0</v>
       </c>
       <c r="P152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
+      <c r="R152" t="n">
+        <v>0</v>
+      </c>
+      <c r="S152" t="n">
+        <v>0</v>
+      </c>
+      <c r="T152" t="n">
         <v>1</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>0</v>
-      </c>
-      <c r="R152" t="n">
-        <v>0</v>
-      </c>
-      <c r="S152" t="n">
-        <v>0</v>
-      </c>
-      <c r="T152" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -11735,29 +11727,29 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>$6,878,983.00</t>
+          <t>$1,422,090.00</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>$5,658,603.00</t>
+          <t>$84,896.00</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$22,832.00</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>$0.00</t>
+          <t>$22,832.00</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>3.718290119131044</v>
       </c>
       <c r="H153" t="n">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11781,7 +11773,7 @@
         <v>0</v>
       </c>
       <c r="P153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q153" t="n">
         <v>0</v>
@@ -11799,74 +11791,148 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>WCS</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>$6,878,983.00</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>$5,658,603.00</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>$0.00</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>0</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="n">
+        <v>0</v>
+      </c>
+      <c r="P154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
+      <c r="R154" t="n">
+        <v>0</v>
+      </c>
+      <c r="S154" t="n">
+        <v>0</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
           <t>2014</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>WCS</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>$1,989,661.00</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>$708,140.00</t>
         </is>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="E155" t="inlineStr">
         <is>
           <t>$0.00</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>$0.00</t>
         </is>
       </c>
-      <c r="G154" t="n">
-        <v>0</v>
-      </c>
-      <c r="H154" t="n">
-        <v>30</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="n">
-        <v>0</v>
-      </c>
-      <c r="K154" t="n">
-        <v>0</v>
-      </c>
-      <c r="L154" t="n">
-        <v>0</v>
-      </c>
-      <c r="M154" t="n">
-        <v>0</v>
-      </c>
-      <c r="N154" t="n">
-        <v>0</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0</v>
-      </c>
-      <c r="P154" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q154" t="n">
-        <v>0</v>
-      </c>
-      <c r="R154" t="n">
-        <v>0</v>
-      </c>
-      <c r="S154" t="n">
-        <v>0</v>
-      </c>
-      <c r="T154" t="n">
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
+      <c r="K155" t="n">
+        <v>0</v>
+      </c>
+      <c r="L155" t="n">
+        <v>0</v>
+      </c>
+      <c r="M155" t="n">
+        <v>0</v>
+      </c>
+      <c r="N155" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" t="n">
+        <v>0</v>
+      </c>
+      <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
+      <c r="R155" t="n">
+        <v>0</v>
+      </c>
+      <c r="S155" t="n">
+        <v>0</v>
+      </c>
+      <c r="T155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11887,7 +11953,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -12209,47 +12275,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$455,555.29</t>
+          <t>$976,189.90</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$377,004.58</t>
+          <t>$848,260.30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$364,591.57</t>
+          <t>$798,629.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$355,929.98</t>
+          <t>$760,395.86</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$301,557.67</t>
+          <t>$629,337.74</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$302,292.69</t>
+          <t>$725,502.45</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$252,675.86</t>
+          <t>$651,637.74</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$266,358.35</t>
+          <t>$581,145.50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$243,464.31</t>
+          <t>$531,194.86</t>
         </is>
       </c>
     </row>
@@ -12293,37 +12359,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>21</v>
+      </c>
+      <c r="C9" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>22</v>
+      </c>
+      <c r="F9" t="n">
+        <v>23</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>22</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -18270,7 +18331,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -18592,47 +18653,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$121,512.82</t>
+          <t>$459,048.44</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$111,345.68</t>
+          <t>$423,113.60</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$107,900.61</t>
+          <t>$388,442.20</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$108,959.95</t>
+          <t>$366,501.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$98,612.50</t>
+          <t>$335,282.50</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$93,547.87</t>
+          <t>$323,165.36</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$74,318.81</t>
+          <t>$297,275.22</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$70,143.00</t>
+          <t>$272,778.33</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$60,036.30</t>
+          <t>$246,815.89</t>
         </is>
       </c>
     </row>
@@ -18676,37 +18737,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>10</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -21491,7 +21547,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -21813,47 +21869,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$110,548.28</t>
+          <t>$432,980.75</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$99,123.91</t>
+          <t>$387,484.36</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$111,901.21</t>
+          <t>$427,259.18</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$95,953.81</t>
+          <t>$409,984.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$90,210.49</t>
+          <t>$306,715.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$81,537.94</t>
+          <t>$307,335.31</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$72,551.39</t>
+          <t>$284,624.69</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$76,969.18</t>
+          <t>$296,035.31</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$71,221.37</t>
+          <t>$268,449.77</t>
         </is>
       </c>
     </row>
@@ -21897,37 +21953,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>12</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>11</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>15</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -25456,7 +25507,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -25778,47 +25829,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$120,884.55</t>
+          <t>$295,495.56</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$120,062.63</t>
+          <t>$306,826.72</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$123,349.73</t>
+          <t>$308,374.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$115,852.52</t>
+          <t>$318,594.44</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$132,413.33</t>
+          <t>$320,579.63</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$114,250.80</t>
+          <t>$294,646.79</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$99,851.31</t>
+          <t>$268,021.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$102,372.77</t>
+          <t>$295,743.56</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$99,936.02</t>
+          <t>$294,256.06</t>
         </is>
       </c>
     </row>
@@ -25862,37 +25913,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>18</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18</v>
+      </c>
+      <c r="E9" t="n">
+        <v>16</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>19</v>
+      </c>
+      <c r="H9" t="n">
+        <v>19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>18</v>
+      </c>
+      <c r="J9" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -31002,7 +31048,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -31324,47 +31370,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$799.70</t>
+          <t>$18,393.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,199.95</t>
+          <t>$25,199.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$1,760.80</t>
+          <t>$44,020.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$3,889.15</t>
+          <t>$38,891.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1,987.16</t>
+          <t>$37,756.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$1,989.16</t>
+          <t>$37,794.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$1,512.80</t>
+          <t>$37,820.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$666.67</t>
+          <t>$14,000.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$823.53</t>
+          <t>$14,000.00</t>
         </is>
       </c>
     </row>
@@ -31408,37 +31454,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -31805,7 +31846,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -32127,47 +32168,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$180,080.74</t>
+          <t>$336,672.70</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$181,013.60</t>
+          <t>$354,157.04</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$180,684.08</t>
+          <t>$354,140.80</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$180,645.98</t>
+          <t>$361,291.96</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$182,284.41</t>
+          <t>$444,318.25</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$150,899.97</t>
+          <t>$372,219.93</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$135,049.59</t>
+          <t>$416,402.92</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$148,361.39</t>
+          <t>$433,671.77</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$133,979.74</t>
+          <t>$391,633.08</t>
         </is>
       </c>
     </row>
@@ -32211,37 +32252,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>23</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>24</v>
+      </c>
+      <c r="F9" t="n">
+        <v>16</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12</v>
+      </c>
+      <c r="I9" t="n">
+        <v>13</v>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11">
@@ -37382,7 +37418,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -37709,42 +37745,42 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$1,500.46</t>
+          <t>$36,011.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$7,247.46</t>
+          <t>$173,939.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$7,341.23</t>
+          <t>$161,507.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$2,501.46</t>
+          <t>$60,035.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$14,647.67</t>
+          <t>$175,772.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$10,426.70</t>
+          <t>$119,907.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$3,349.43</t>
+          <t>$38,518.50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$10,749.60</t>
+          <t>$71,664.00</t>
         </is>
       </c>
     </row>
@@ -37788,37 +37824,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -38278,7 +38309,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -38600,47 +38631,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$1,919.86</t>
+          <t>$53,756.00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$546.37</t>
+          <t>$14,752.00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$549.63</t>
+          <t>$14,840.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$618.33</t>
+          <t>$14,840.00</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$1,471.24</t>
+          <t>$36,781.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$1,147.33</t>
+          <t>$27,536.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$2,027.57</t>
+          <t>$42,579.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$1,436.14</t>
+          <t>$30,159.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$1,210.83</t>
+          <t>$27,849.00</t>
         </is>
       </c>
     </row>
@@ -38684,37 +38715,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -39044,13 +39070,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -39060,45 +39086,50 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>2014</t>
         </is>
@@ -39112,45 +39143,50 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>$2,146,058.00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>$2,632,197.00</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$2,404,154.00</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>$5,861,804.00</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>$2,386,460.00</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>$2,600,440.00</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>$4,000,259.00</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>$1,422,090.00</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>$6,878,983.00</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>$1,989,661.00</t>
         </is>
@@ -39164,45 +39200,50 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>$2,632,197.00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>$2,404,154.00</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$5,861,804.00</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>$2,386,460.00</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>$2,600,440.00</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>$4,000,259.00</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>$1,422,090.00</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>$6,878,983.00</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>$1,989,661.00</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>$1,403,677.00</t>
         </is>
@@ -39216,45 +39257,50 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>$706,369.00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>$1,348,111.00</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>($367,226.00)</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>$2,096,394.00</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>$707,643.00</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>$354,205.00</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>$2,893,827.00</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>$84,896.00</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>$5,658,603.00</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>$708,140.00</t>
         </is>
@@ -39268,45 +39314,50 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>$1,348,111.00</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>($367,226.00)</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$2,096,394.00</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>$707,643.00</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>$354,205.00</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>$2,893,827.00</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>$84,896.00</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>$5,658,603.00</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>$708,140.00</t>
         </is>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>$595,810.00</t>
         </is>
@@ -39320,45 +39371,50 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>$412,611.00</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>$381,777.00</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$78,519.00</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>$45,889.00</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>$20,281.00</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>$13,600.00</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>$21,200.00</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>$22,832.00</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>$0.00</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>$0.00</t>
         </is>
@@ -39372,45 +39428,50 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$13,164.72</t>
+          <t>$82,522.20</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$2,908.11</t>
+          <t>$76,355.40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$1,699.59</t>
+          <t>$26,173.00</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$751.15</t>
+          <t>$22,944.50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$523.08</t>
+          <t>$20,281.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$757.14</t>
+          <t>$13,600.00</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$845.63</t>
+          <t>$21,200.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
+          <t>$22,832.00</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
           <t>$0.00</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>$0.00</t>
         </is>
@@ -39423,30 +39484,33 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>1.711949027049691</v>
+      </c>
+      <c r="C8" t="n">
         <v>3.531147764270766</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>-4.676906226518422</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>45.68402013554446</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>34.89191854445047</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>26.04448529411765</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>136.5012735849056</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>3.718290119131044</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -39456,37 +39520,35 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -39529,7 +39591,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -39551,52 +39613,52 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>53039</v>
+        <v>59310</v>
       </c>
       <c r="G12" t="n">
-        <v>53039</v>
+        <v>59310</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BEATRICE FEVRY</t>
+          <t>PAUL BERAN</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>DIRECTOR</t>
+          <t>INTERIM PRESIDENT</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>President</t>
         </is>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>49752</v>
+        <v>75523</v>
       </c>
       <c r="G13" t="n">
-        <v>49752</v>
+        <v>75523</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>LYNNE LEBARRON</t>
+          <t>BEATRICE FEVRY</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -39613,21 +39675,21 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>150927</v>
+        <v>57318</v>
       </c>
       <c r="G14" t="n">
-        <v>150927</v>
+        <v>57318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>BRIAN STEVENS</t>
+          <t>LYNNE LEBARRON</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -39644,26 +39706,26 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>49097</v>
+        <v>167202</v>
       </c>
       <c r="G15" t="n">
-        <v>49097</v>
+        <v>167202</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>JOHN CLARK</t>
+          <t>BRIAN STEVENS</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FORMER DIRECTOR</t>
+          <t>DIRECTOR</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -39675,52 +39737,52 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>78962</v>
+        <v>53258</v>
       </c>
       <c r="G16" t="n">
-        <v>78962</v>
+        <v>53258</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>LYNNE LEBARRON</t>
+          <t>MISSY ALEXANDER</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>SECRETARY/TREASURER</t>
+          <t>DIRECTOR</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Treas</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>26285</v>
+        <v>53039</v>
       </c>
       <c r="G17" t="n">
-        <v>26285</v>
+        <v>53039</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>MISSY ALEXANDER</t>
+          <t>BEATRICE FEVRY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -39737,21 +39799,21 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>12335</v>
+        <v>49752</v>
       </c>
       <c r="G18" t="n">
-        <v>12335</v>
+        <v>49752</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2021</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>JOHN CLARK</t>
+          <t>LYNNE LEBARRON</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -39768,21 +39830,21 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>39899</v>
+        <v>150927</v>
       </c>
       <c r="G19" t="n">
-        <v>39899</v>
+        <v>150927</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>MISSY ALEXANDER</t>
+          <t>BRIAN STEVENS</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -39799,16 +39861,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>8084</v>
+        <v>49097</v>
       </c>
       <c r="G20" t="n">
-        <v>8084</v>
+        <v>49097</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2020</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -39818,7 +39880,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>DIRECTOR</t>
+          <t>FORMER DIRECTOR</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -39830,52 +39892,52 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>37805</v>
+        <v>78962</v>
       </c>
       <c r="G21" t="n">
-        <v>37805</v>
+        <v>78962</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>JOHN CLARK</t>
+          <t>LYNNE LEBARRON</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>DIRECTOR</t>
+          <t>SECRETARY/TREASURER</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Treas</t>
         </is>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>20281</v>
+        <v>26285</v>
       </c>
       <c r="G22" t="n">
-        <v>20281</v>
+        <v>26285</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>JOHN CLARK</t>
+          <t>MISSY ALEXANDER</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -39892,16 +39954,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>13600</v>
+        <v>12335</v>
       </c>
       <c r="G23" t="n">
-        <v>13600</v>
+        <v>12335</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -39923,40 +39985,195 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>21200</v>
+        <v>39899</v>
       </c>
       <c r="G24" t="n">
-        <v>21200</v>
+        <v>39899</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MISSY ALEXANDER</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>DIRECTOR</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>8084</v>
+      </c>
+      <c r="G25" t="n">
+        <v>8084</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>JOHN CLARK</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>DIRECTOR</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>37805</v>
+      </c>
+      <c r="G26" t="n">
+        <v>37805</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>JOHN CLARK</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>DIRECTOR</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>20281</v>
+      </c>
+      <c r="G27" t="n">
+        <v>20281</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JOHN CLARK</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>DIRECTOR</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>13600</v>
+      </c>
+      <c r="G28" t="n">
+        <v>13600</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JOHN CLARK</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>DIRECTOR</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>21200</v>
+      </c>
+      <c r="G29" t="n">
+        <v>21200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>KEITH BETTS</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>SECRETARY/TREASURER</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Treas</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>22832</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G30" t="n">
         <v>22832</v>
       </c>
     </row>
@@ -39977,7 +40194,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -40299,47 +40516,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$161,133.42</t>
+          <t>$446,215.62</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$170,413.55</t>
+          <t>$498,131.92</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$144,922.68</t>
+          <t>$423,620.15</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$121,821.22</t>
+          <t>$398,687.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$118,519.97</t>
+          <t>$398,658.09</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$111,144.08</t>
+          <t>$333,432.23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$108,016.47</t>
+          <t>$315,740.46</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$95,373.46</t>
+          <t>$294,068.17</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$110,965.56</t>
+          <t>$285,340.00</t>
         </is>
       </c>
     </row>
@@ -40383,37 +40600,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>13</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="n">
+        <v>13</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="n">
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -43973,7 +44185,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -44295,47 +44507,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$151,272.58</t>
+          <t>$586,181.25</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$146,759.88</t>
+          <t>$587,039.50</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$205,405.66</t>
+          <t>$661,862.67</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$232,321.62</t>
+          <t>$673,732.70</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$160,189.54</t>
+          <t>$694,154.67</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$117,701.95</t>
+          <t>$672,582.57</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$96,823.98</t>
+          <t>$608,607.86</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$104,718.00</t>
+          <t>$613,348.29</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$95,875.10</t>
+          <t>$561,554.14</t>
         </is>
       </c>
     </row>
@@ -44379,37 +44591,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>8</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -46698,7 +46905,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -47055,12 +47262,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$1,220.00</t>
+          <t>$18,300.00</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$1,220.00</t>
+          <t>$18,300.00</t>
         </is>
       </c>
     </row>
@@ -47104,37 +47311,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -47253,7 +47455,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -47575,47 +47777,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$31,187.92</t>
+          <t>$180,196.89</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$30,464.12</t>
+          <t>$189,554.56</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$27,654.35</t>
+          <t>$190,123.62</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$25,562.33</t>
+          <t>$161,894.78</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$17,845.07</t>
+          <t>$129,376.75</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$15,742.16</t>
+          <t>$131,840.62</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$17,267.44</t>
+          <t>$127,347.38</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$11,773.76</t>
+          <t>$105,963.88</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$11,544.88</t>
+          <t>$53,601.21</t>
         </is>
       </c>
     </row>
@@ -47659,37 +47861,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9</v>
+      </c>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>9</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8</v>
+      </c>
+      <c r="J9" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11">
@@ -50257,7 +50454,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -50579,47 +50776,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$16,526.08</t>
+          <t>$82,630.40</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$15,522.59</t>
+          <t>$68,299.40</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$14,240.52</t>
+          <t>$49,841.83</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$5,809.23</t>
+          <t>$43,569.25</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$5,032.62</t>
+          <t>$40,261.00</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$6,732.20</t>
+          <t>$40,393.20</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$8,718.89</t>
+          <t>$40,688.17</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$4,873.72</t>
+          <t>$22,279.86</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$486.59</t>
+          <t>$3,600.80</t>
         </is>
       </c>
     </row>
@@ -50663,37 +50860,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>5</v>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -52207,7 +52399,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -52529,47 +52721,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$85,891.03</t>
+          <t>$372,194.44</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$86,692.44</t>
+          <t>$307,364.09</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$92,489.38</t>
+          <t>$349,404.33</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$98,843.71</t>
+          <t>$288,294.17</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$131,634.24</t>
+          <t>$381,739.30</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$104,708.68</t>
+          <t>$295,088.09</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$99,010.97</t>
+          <t>$352,039.00</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$85,933.65</t>
+          <t>$317,954.50</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$86,041.28</t>
+          <t>$344,165.11</t>
         </is>
       </c>
     </row>
@@ -52613,37 +52805,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11</v>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+      <c r="I9" t="n">
+        <v>10</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -55490,7 +55677,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -55812,47 +55999,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$163,675.61</t>
+          <t>$479,335.71</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$177,374.65</t>
+          <t>$567,598.87</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$134,258.59</t>
+          <t>$344,402.48</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$131,366.09</t>
+          <t>$354,688.45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$150,021.17</t>
+          <t>$363,209.16</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$122,988.20</t>
+          <t>$313,619.90</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$119,301.20</t>
+          <t>$292,287.95</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$107,757.71</t>
+          <t>$301,721.60</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$103,662.78</t>
+          <t>$254,445.00</t>
         </is>
       </c>
     </row>
@@ -55896,37 +56083,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15</v>
+      </c>
+      <c r="D9" t="n">
+        <v>23</v>
+      </c>
+      <c r="E9" t="n">
+        <v>20</v>
+      </c>
+      <c r="F9" t="n">
+        <v>19</v>
+      </c>
+      <c r="G9" t="n">
+        <v>20</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -61191,7 +61373,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -61513,47 +61695,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>$132,406.94</t>
+          <t>$276,327.52</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$112,250.77</t>
+          <t>$244,910.77</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>$112,184.75</t>
+          <t>$265,163.95</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>$83,526.67</t>
+          <t>$184,334.72</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>$92,670.11</t>
+          <t>$247,120.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>$63,781.90</t>
+          <t>$191,345.69</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>$68,998.24</t>
+          <t>$206,994.71</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>$58,850.55</t>
+          <t>$174,522.31</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>$55,030.00</t>
+          <t>$173,242.59</t>
         </is>
       </c>
     </row>
@@ -61597,37 +61779,32 @@
           <t>Total Reported Employees</t>
         </is>
       </c>
-    </row>
-    <row r="10">
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Name</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Title</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Title Group</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Base Compensation</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Other Comp</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Total Comp</t>
-        </is>
+      <c r="B9" t="n">
+        <v>23</v>
+      </c>
+      <c r="C9" t="n">
+        <v>22</v>
+      </c>
+      <c r="D9" t="n">
+        <v>22</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>21</v>
+      </c>
+      <c r="G9" t="n">
+        <v>26</v>
+      </c>
+      <c r="H9" t="n">
+        <v>28</v>
+      </c>
+      <c r="I9" t="n">
+        <v>29</v>
+      </c>
+      <c r="J9" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="11">
